--- a/reports/Books.xlsx
+++ b/reports/Books.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="35">
   <si>
     <t>Accession Number</t>
   </si>
@@ -44,16 +44,19 @@
     <t>1</t>
   </si>
   <si>
-    <t>Jack and Jill</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>10-12-2025</t>
-  </si>
-  <si>
-    <t>1234</t>
+    <t>Introduction to Java I</t>
+  </si>
+  <si>
+    <t>Neil Mutia, John Bagcal</t>
+  </si>
+  <si>
+    <t>Java Books</t>
+  </si>
+  <si>
+    <t>2025-12-10</t>
+  </si>
+  <si>
+    <t>978-0-12-345678-9</t>
   </si>
   <si>
     <t>Available</t>
@@ -74,31 +77,43 @@
     <t>6</t>
   </si>
   <si>
-    <t>Emmanuel Book</t>
-  </si>
-  <si>
-    <t>Restor,Macalolot,Edward</t>
-  </si>
-  <si>
-    <t>2121</t>
+    <t>Intro to Dating</t>
+  </si>
+  <si>
+    <t>Wardie F. Kennedy</t>
+  </si>
+  <si>
+    <t>Dating gawi</t>
+  </si>
+  <si>
+    <t>2021-12-17</t>
+  </si>
+  <si>
+    <t>978-0-12-345656-6</t>
   </si>
   <si>
     <t>7</t>
   </si>
   <si>
+    <t>Introduction to PHP 101</t>
+  </si>
+  <si>
+    <t>John B</t>
+  </si>
+  <si>
+    <t>Php books</t>
+  </si>
+  <si>
+    <t>978-0-12-345678-4</t>
+  </si>
+  <si>
+    <t>Borrowed</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>Edward Dugan</t>
-  </si>
-  <si>
-    <t>Restor</t>
-  </si>
-  <si>
-    <t>1235</t>
   </si>
   <si>
     <t>10</t>
@@ -159,12 +174,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="15.60546875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.71484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.58984375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="21.8828125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="6.63671875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="9.6171875" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.54296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.18359375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.49609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="18.2265625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.47265625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="7.109375" customWidth="true" bestFit="true"/>
   </cols>
@@ -210,24 +225,24 @@
       </c>
       <c r="D2" s="0"/>
       <c r="E2" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="0">
         <v>10</v>
@@ -237,24 +252,24 @@
       </c>
       <c r="D3" s="0"/>
       <c r="E3" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>10</v>
@@ -264,24 +279,24 @@
       </c>
       <c r="D4" s="0"/>
       <c r="E4" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>10</v>
@@ -291,24 +306,24 @@
       </c>
       <c r="D5" s="0"/>
       <c r="E5" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>10</v>
@@ -318,154 +333,154 @@
       </c>
       <c r="D6" s="0"/>
       <c r="E6" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" t="s" s="0">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s" s="0">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="I8" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" t="s" s="0">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F11" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H11" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s" s="0">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
